--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A6192-6D91-47D9-ABEC-284C6645BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3B10B-BC63-4095-BDB0-1359E9E3F44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -219,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -758,7 +761,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -957,9 +968,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1234,7 +1245,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2335,7 +2346,9 @@
       <c r="I23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="K23" s="15" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2361,9 @@
       <c r="N23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="18"/>
+      <c r="O23" s="18">
+        <v>1</v>
+      </c>
       <c r="P23" s="6" t="str">
         <f t="shared" ref="P23" si="4">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
@@ -2364,8 +2379,23 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="N13">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
     <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
@@ -2378,9 +2408,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="K5">
     <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -2393,9 +2423,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -2408,11 +2438,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2423,9 +2453,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="N15">
     <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -2438,9 +2468,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="K6">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -2453,9 +2483,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -2468,9 +2498,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
+  <conditionalFormatting sqref="L10">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -2483,9 +2513,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
+  <conditionalFormatting sqref="M9">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -2498,9 +2528,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
+  <conditionalFormatting sqref="M8">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2513,9 +2543,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="L4">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2528,9 +2558,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="M20">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2543,9 +2573,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
+  <conditionalFormatting sqref="M17">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2558,9 +2588,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
+  <conditionalFormatting sqref="M18">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2573,9 +2603,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
+  <conditionalFormatting sqref="N19">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2588,9 +2618,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N21">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2603,9 +2633,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+  <conditionalFormatting sqref="O22">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2618,9 +2648,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
+  <conditionalFormatting sqref="K3">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2633,9 +2663,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="K7">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2648,23 +2678,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
